--- a/execution-time-charts.xlsx
+++ b/execution-time-charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="600" windowWidth="19300" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Size</t>
   </si>
@@ -53,24 +53,6 @@
     <t>T: Total</t>
   </si>
   <si>
-    <t>Peroclates?</t>
-  </si>
-  <si>
-    <t>Cluster size</t>
-  </si>
-  <si>
-    <t>SUCCEEDED</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Thu Jan  1 08:00:00 1970</t>
-  </si>
-  <si>
-    <t>Lattice</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -81,6 +63,12 @@
   </si>
   <si>
     <t>Threads</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Wed Oct  4 16:38:37 2017</t>
   </si>
 </sst>
 </file>
@@ -217,7 +205,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>Sheet1!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,10 +240,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$18</c:f>
+              <c:f>Sheet1!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -285,57 +273,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$18</c:f>
+              <c:f>Sheet1!$C$8:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.035694</c:v>
+                  <c:v>0.018115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.042312</c:v>
+                  <c:v>0.091719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.316508</c:v>
+                  <c:v>0.227781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.276789</c:v>
+                  <c:v>0.539342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.46348</c:v>
+                  <c:v>1.745716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.998203</c:v>
+                  <c:v>7.539005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.627318</c:v>
+                  <c:v>30.83874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.662372</c:v>
+                  <c:v>104.765969</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184.232116</c:v>
+                  <c:v>228.423695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>834.250049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1696.432703</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3594.287048</c:v>
+                  <c:v>718.459334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,7 +323,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -382,10 +358,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$18</c:f>
+              <c:f>Sheet1!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -415,57 +391,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$18</c:f>
+              <c:f>Sheet1!$D$8:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.128893</c:v>
+                  <c:v>0.110529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.086396</c:v>
+                  <c:v>0.123476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31264</c:v>
+                  <c:v>0.209851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.313181</c:v>
+                  <c:v>0.531094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.925725</c:v>
+                  <c:v>1.996095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.172279</c:v>
+                  <c:v>11.299107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.221877</c:v>
+                  <c:v>77.448294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.349418</c:v>
+                  <c:v>301.092592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.16945200000001</c:v>
+                  <c:v>170.827136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>687.683842</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1174.439164</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2985.523488</c:v>
+                  <c:v>517.917639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,11 +444,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1594662032"/>
-        <c:axId val="1594312480"/>
+        <c:axId val="1655770192"/>
+        <c:axId val="1655772320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1594662032"/>
+        <c:axId val="1655770192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,12 +560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594312480"/>
+        <c:crossAx val="1655772320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1594312480"/>
+        <c:axId val="1655772320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594662032"/>
+        <c:crossAx val="1655770192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,7 +850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -921,10 +885,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$18</c:f>
+              <c:f>Sheet1!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -954,57 +918,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$18</c:f>
+              <c:f>Sheet1!$G$8:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.047365</c:v>
+                  <c:v>0.029833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.084967</c:v>
+                  <c:v>0.1343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.499809</c:v>
+                  <c:v>0.372702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.875417</c:v>
+                  <c:v>1.129693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.755554</c:v>
+                  <c:v>3.820088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.82783</c:v>
+                  <c:v>15.729909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.287739</c:v>
+                  <c:v>65.30939600000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>222.13024</c:v>
+                  <c:v>245.204265</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>745.656306</c:v>
+                  <c:v>821.55439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3096.624539</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11036.03871</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44009.04582</c:v>
+                  <c:v>3139.762408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +968,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$6</c:f>
+              <c:f>Sheet1!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,10 +1003,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$18</c:f>
+              <c:f>Sheet1!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1084,57 +1036,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$18</c:f>
+              <c:f>Sheet1!$H$8:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.128893</c:v>
+                  <c:v>0.122247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.086396</c:v>
+                  <c:v>0.166057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31264</c:v>
+                  <c:v>0.354772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.313181</c:v>
+                  <c:v>1.121445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.925725</c:v>
+                  <c:v>4.070466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.172279</c:v>
+                  <c:v>19.490011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.221877</c:v>
+                  <c:v>111.918951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.349418</c:v>
+                  <c:v>441.530889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.16945200000001</c:v>
+                  <c:v>763.9578310000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>687.683842</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1174.439164</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2985.523488</c:v>
+                  <c:v>2939.220713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,11 +1089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1625667264"/>
-        <c:axId val="1600031648"/>
+        <c:axId val="1598816496"/>
+        <c:axId val="1598480672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1625667264"/>
+        <c:axId val="1598816496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,12 +1205,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600031648"/>
+        <c:crossAx val="1598480672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1600031648"/>
+        <c:axId val="1598480672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1625667264"/>
+        <c:crossAx val="1598816496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1554,7 +1494,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>Sheet1!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1589,10 +1529,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$18</c:f>
+              <c:f>Sheet1!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1622,57 +1562,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$18</c:f>
+              <c:f>Sheet1!$E$8:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.011671</c:v>
+                  <c:v>0.011718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.042655</c:v>
+                  <c:v>0.042581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.183301</c:v>
+                  <c:v>0.144921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.598628</c:v>
+                  <c:v>0.590351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.292074</c:v>
+                  <c:v>2.074372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.829627</c:v>
+                  <c:v>8.190905000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.660421</c:v>
+                  <c:v>34.470656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141.467868</c:v>
+                  <c:v>140.438297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>561.42419</c:v>
+                  <c:v>593.1306949999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2262.37449</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9339.606009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40414.75878</c:v>
+                  <c:v>2421.303074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1612,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1719,10 +1647,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$18</c:f>
+              <c:f>Sheet1!$A$8:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1752,57 +1680,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$F$18</c:f>
+              <c:f>Sheet1!$F$8:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.011718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.042581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.144921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.590351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.074372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>8.190905000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>34.470656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>140.438297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>593.1306949999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>2421.303074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,11 +1733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1627085440"/>
-        <c:axId val="1626499808"/>
+        <c:axId val="1594184192"/>
+        <c:axId val="1654544976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1627085440"/>
+        <c:axId val="1594184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,6 +1813,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1933,12 +1850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1626499808"/>
+        <c:crossAx val="1654544976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1626499808"/>
+        <c:axId val="1654544976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +1973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627085440"/>
+        <c:crossAx val="1594184192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3810,15 +3727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3840,15 +3757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3870,15 +3787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4163,465 +4080,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>0.26728400000000002</v>
-      </c>
-      <c r="C7">
-        <v>3.5693999999999997E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.12889300000000001</v>
-      </c>
-      <c r="E7">
-        <v>1.1671000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>4.7364999999999997E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.12889300000000001</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>139</v>
+      <c r="B8">
+        <v>3.7189E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.8114999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.110529</v>
+      </c>
+      <c r="E8">
+        <v>1.1717999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.1717999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.9832999999999998E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.12224699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>4.8294999999999998E-2</v>
-      </c>
-      <c r="C8">
-        <v>4.2312000000000002E-2</v>
-      </c>
-      <c r="D8">
-        <v>8.6396000000000001E-2</v>
-      </c>
-      <c r="E8">
-        <v>4.2654999999999998E-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>8.4967000000000001E-2</v>
-      </c>
-      <c r="H8">
-        <v>8.6396000000000001E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>433</v>
+      <c r="B9">
+        <v>4.1373E-2</v>
+      </c>
+      <c r="C9">
+        <v>9.1718999999999995E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.123476</v>
+      </c>
+      <c r="E9">
+        <v>4.2581000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.2581000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.1343</v>
+      </c>
+      <c r="H9">
+        <v>0.16605700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>64</v>
       </c>
-      <c r="B9">
-        <v>0.12297</v>
-      </c>
-      <c r="C9">
-        <v>0.31650800000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.31263999999999997</v>
-      </c>
-      <c r="E9">
-        <v>0.18330099999999999</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.499809</v>
-      </c>
-      <c r="H9">
-        <v>0.31263999999999997</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>2177</v>
+      <c r="B10">
+        <v>8.8540999999999995E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.22778100000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.20985100000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.14492099999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.14492099999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.37270199999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.35477199999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>128</v>
       </c>
-      <c r="B10">
-        <v>0.22558600000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.27678900000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.31318099999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.59862800000000005</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.875417</v>
-      </c>
-      <c r="H10">
-        <v>0.31318099999999999</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>3887</v>
+      <c r="B11">
+        <v>0.23580899999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.53934199999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.53109399999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.59035099999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.59035099999999996</v>
+      </c>
+      <c r="G11">
+        <v>1.1296930000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.121445</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>256</v>
       </c>
-      <c r="B11">
-        <v>0.63269900000000001</v>
-      </c>
-      <c r="C11">
-        <v>2.4634800000000001</v>
-      </c>
-      <c r="D11">
-        <v>3.9257249999999999</v>
-      </c>
-      <c r="E11">
-        <v>2.2920739999999999</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>4.7555540000000001</v>
-      </c>
-      <c r="H11">
-        <v>3.9257249999999999</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>24745</v>
+      <c r="B12">
+        <v>0.74601099999999998</v>
+      </c>
+      <c r="C12">
+        <v>1.745716</v>
+      </c>
+      <c r="D12">
+        <v>1.996095</v>
+      </c>
+      <c r="E12">
+        <v>2.0743719999999999</v>
+      </c>
+      <c r="F12">
+        <v>2.0743719999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.8200880000000002</v>
+      </c>
+      <c r="H12">
+        <v>4.0704659999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>512</v>
       </c>
-      <c r="B12">
-        <v>2.4137849999999998</v>
-      </c>
-      <c r="C12">
-        <v>9.9982030000000002</v>
-      </c>
-      <c r="D12">
-        <v>6.1722789999999996</v>
-      </c>
-      <c r="E12">
-        <v>7.8296270000000003</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>17.827829999999999</v>
-      </c>
-      <c r="H12">
-        <v>6.1722789999999996</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>125539</v>
+      <c r="B13">
+        <v>2.3754979999999999</v>
+      </c>
+      <c r="C13">
+        <v>7.5390050000000004</v>
+      </c>
+      <c r="D13">
+        <v>11.299106999999999</v>
+      </c>
+      <c r="E13">
+        <v>8.1909050000000008</v>
+      </c>
+      <c r="F13">
+        <v>8.1909050000000008</v>
+      </c>
+      <c r="G13">
+        <v>15.729908999999999</v>
+      </c>
+      <c r="H13">
+        <v>19.490010999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1024</v>
       </c>
-      <c r="B13">
-        <v>8.2959110000000003</v>
-      </c>
-      <c r="C13">
-        <v>22.627317999999999</v>
-      </c>
-      <c r="D13">
-        <v>22.221876999999999</v>
-      </c>
-      <c r="E13">
-        <v>40.660420999999999</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>63.287739000000002</v>
-      </c>
-      <c r="H13">
-        <v>22.221876999999999</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>430119</v>
+      <c r="B14">
+        <v>9.2888009999999994</v>
+      </c>
+      <c r="C14">
+        <v>30.838740000000001</v>
+      </c>
+      <c r="D14">
+        <v>77.448294000000004</v>
+      </c>
+      <c r="E14">
+        <v>34.470655999999998</v>
+      </c>
+      <c r="F14">
+        <v>34.470655999999998</v>
+      </c>
+      <c r="G14">
+        <v>65.309396000000007</v>
+      </c>
+      <c r="H14">
+        <v>111.91895100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2048</v>
       </c>
-      <c r="B14">
-        <v>31.438592</v>
-      </c>
-      <c r="C14">
-        <v>80.662372000000005</v>
-      </c>
-      <c r="D14">
-        <v>75.349418</v>
-      </c>
-      <c r="E14">
-        <v>141.46786800000001</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>222.13023999999999</v>
-      </c>
-      <c r="H14">
-        <v>75.349418</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>1843887</v>
+      <c r="B15">
+        <v>35.069363000000003</v>
+      </c>
+      <c r="C15">
+        <v>104.765969</v>
+      </c>
+      <c r="D15">
+        <v>301.09259200000002</v>
+      </c>
+      <c r="E15">
+        <v>140.43829700000001</v>
+      </c>
+      <c r="F15">
+        <v>140.43829700000001</v>
+      </c>
+      <c r="G15">
+        <v>245.20426499999999</v>
+      </c>
+      <c r="H15">
+        <v>441.530889</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>4096</v>
       </c>
-      <c r="B15">
-        <v>129.57210699999999</v>
-      </c>
-      <c r="C15">
-        <v>184.23211599999999</v>
-      </c>
-      <c r="D15">
-        <v>80.169452000000007</v>
-      </c>
-      <c r="E15">
-        <v>561.42418999999995</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>745.65630599999997</v>
-      </c>
-      <c r="H15">
-        <v>80.169452000000007</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>7566564</v>
+      <c r="B16">
+        <v>137.974862</v>
+      </c>
+      <c r="C16">
+        <v>228.42369500000001</v>
+      </c>
+      <c r="D16">
+        <v>170.827136</v>
+      </c>
+      <c r="E16">
+        <v>593.13069499999995</v>
+      </c>
+      <c r="F16">
+        <v>593.13069499999995</v>
+      </c>
+      <c r="G16">
+        <v>821.55439000000001</v>
+      </c>
+      <c r="H16">
+        <v>763.95783100000006</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>8192</v>
       </c>
-      <c r="B16">
-        <v>548.18113200000005</v>
-      </c>
-      <c r="C16">
-        <v>834.25004899999999</v>
-      </c>
-      <c r="D16">
-        <v>687.68384200000003</v>
-      </c>
-      <c r="E16">
-        <v>2262.3744900000002</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>3096.6245389999999</v>
-      </c>
-      <c r="H16">
-        <v>687.68384200000003</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>28011244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16384</v>
-      </c>
       <c r="B17">
-        <v>2023.6396030000001</v>
+        <v>526.32718999999997</v>
       </c>
       <c r="C17">
-        <v>1696.4327029999999</v>
+        <v>718.45933400000001</v>
       </c>
       <c r="D17">
-        <v>1174.4391639999999</v>
+        <v>517.91763900000001</v>
       </c>
       <c r="E17">
-        <v>9339.6060089999992</v>
+        <v>2421.3030739999999</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2421.3030739999999</v>
       </c>
       <c r="G17">
-        <v>11036.038710000001</v>
+        <v>3139.7624080000001</v>
       </c>
       <c r="H17">
-        <v>1174.4391639999999</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>116216126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>32768</v>
-      </c>
-      <c r="B18">
-        <v>8251.3828250000006</v>
-      </c>
-      <c r="C18">
-        <v>3594.2870480000001</v>
-      </c>
-      <c r="D18">
-        <v>2985.5234879999998</v>
-      </c>
-      <c r="E18">
-        <v>40414.758779999996</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>44009.045819999999</v>
-      </c>
-      <c r="H18">
-        <v>2985.5234879999998</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>463642733</v>
+        <v>2939.2207130000002</v>
       </c>
     </row>
   </sheetData>

--- a/execution-time-charts.xlsx
+++ b/execution-time-charts.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Charts" sheetId="1" r:id="rId1"/>
+    <sheet name="Constants" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Size</t>
   </si>
@@ -36,24 +37,6 @@
   </si>
   <si>
     <t>Percolation</t>
-  </si>
-  <si>
-    <t>T: Percolation</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>T: Cluster</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>T: Total</t>
-  </si>
-  <si>
-    <t>Site</t>
   </si>
   <si>
     <t>Probability</t>
@@ -68,17 +51,178 @@
     <t>Runs</t>
   </si>
   <si>
-    <t>Wed Oct  4 16:38:37 2017</t>
+    <t>1: Cluster</t>
+  </si>
+  <si>
+    <t>2: Cluster</t>
+  </si>
+  <si>
+    <t>3: Cluster</t>
+  </si>
+  <si>
+    <t>4: Cluster</t>
+  </si>
+  <si>
+    <t>5: Cluster</t>
+  </si>
+  <si>
+    <t>6: Cluster</t>
+  </si>
+  <si>
+    <t>7: Cluster</t>
+  </si>
+  <si>
+    <t>8: Cluster</t>
+  </si>
+  <si>
+    <t>1: Total</t>
+  </si>
+  <si>
+    <t>2: Total</t>
+  </si>
+  <si>
+    <t>3: Total</t>
+  </si>
+  <si>
+    <t>4: Total</t>
+  </si>
+  <si>
+    <t>5: Total</t>
+  </si>
+  <si>
+    <t>6: Total</t>
+  </si>
+  <si>
+    <t>7: Total</t>
+  </si>
+  <si>
+    <t>8: Total</t>
+  </si>
+  <si>
+    <t>1: Times percolated</t>
+  </si>
+  <si>
+    <t>2: Times percolated</t>
+  </si>
+  <si>
+    <t>3: Times percolated</t>
+  </si>
+  <si>
+    <t>4: Times percolated</t>
+  </si>
+  <si>
+    <t>5: Times percolated</t>
+  </si>
+  <si>
+    <t>6: Times percolated</t>
+  </si>
+  <si>
+    <t>7: Times percolated</t>
+  </si>
+  <si>
+    <t>8: Times percolated</t>
+  </si>
+  <si>
+    <t>1: Avg cluster size</t>
+  </si>
+  <si>
+    <t>2: Avg cluster size</t>
+  </si>
+  <si>
+    <t>3: Avg cluster size</t>
+  </si>
+  <si>
+    <t>4: Avg cluster size</t>
+  </si>
+  <si>
+    <t>5: Avg cluster size</t>
+  </si>
+  <si>
+    <t>6: Avg cluster size</t>
+  </si>
+  <si>
+    <t>7: Avg cluster size</t>
+  </si>
+  <si>
+    <t>8: Avg cluster size</t>
+  </si>
+  <si>
+    <t>64x64</t>
+  </si>
+  <si>
+    <t>128x128</t>
+  </si>
+  <si>
+    <t>256x256</t>
+  </si>
+  <si>
+    <t>512x512</t>
+  </si>
+  <si>
+    <t>Ideal speed up</t>
+  </si>
+  <si>
+    <t>1: Percolation</t>
+  </si>
+  <si>
+    <t>2: Percolation</t>
+  </si>
+  <si>
+    <t>3: Percolation</t>
+  </si>
+  <si>
+    <t>4: Percolation</t>
+  </si>
+  <si>
+    <t>5: Percolation</t>
+  </si>
+  <si>
+    <t>6: Percolation</t>
+  </si>
+  <si>
+    <t>7: Percolation</t>
+  </si>
+  <si>
+    <t>8: Percolation</t>
+  </si>
+  <si>
+    <t>Fri Oct  6 18:47:35 2017</t>
+  </si>
+  <si>
+    <t>Bond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +245,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -155,12 +316,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Percolation Execution</a:t>
+              <a:t>Largest</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Times</a:t>
+              <a:t> Cluster SIze Speed Up</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -197,25 +359,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>Charts!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Percolation</c:v>
+                  <c:v>64x64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -224,98 +386,80 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$22</c:f>
+              <c:f>Charts!$AF$6:$AN$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$22</c:f>
+              <c:f>Charts!$AF$7:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.018115</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.091719</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.227781</c:v>
+                  <c:v>0.925827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.539342</c:v>
+                  <c:v>0.874282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.745716</c:v>
+                  <c:v>0.898818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.539005</c:v>
+                  <c:v>0.887026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.83874</c:v>
+                  <c:v>0.812145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.765969</c:v>
+                  <c:v>0.791287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>228.423695</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>718.459334</c:v>
+                  <c:v>0.762293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -323,17 +467,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$7</c:f>
+              <c:f>Charts!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T: Percolation</c:v>
+                  <c:v>128x128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -342,98 +486,350 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$22</c:f>
+              <c:f>Charts!$AF$6:$AN$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$22</c:f>
+              <c:f>Charts!$AF$8:$AN$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.110529</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.123476</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.209851</c:v>
+                  <c:v>0.910685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.531094</c:v>
+                  <c:v>0.922318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.996095</c:v>
+                  <c:v>0.92251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.299107</c:v>
+                  <c:v>0.912838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.448294</c:v>
+                  <c:v>0.902816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>301.092592</c:v>
+                  <c:v>0.906317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>170.827136</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>517.917639</c:v>
+                  <c:v>0.849995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AF$6:$AN$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AF$9:$AN$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.062413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.020579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.989821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.973217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.979461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.986727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.917481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AF$6:$AN$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AF$10:$AN$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.005668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.003981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.913126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.964826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.972009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.973604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.953181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AF$6:$AN$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AF$11:$AN$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -444,30 +840,663 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1655770192"/>
-        <c:axId val="1655772320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1655770192"/>
+        <c:smooth val="0"/>
+        <c:axId val="1703095152"/>
+        <c:axId val="1179875200"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$12:$AN$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$13:$AN$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$14:$AN$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$15:$AN$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$16:$AN$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$17:$AN$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$6:$AN$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AF$18:$AN$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1703095152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -489,7 +1518,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Lattice size</a:t>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -524,6 +1557,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -532,8 +1566,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -560,12 +1594,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655772320"/>
+        <c:crossAx val="1179875200"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1655772320"/>
+        <c:axId val="1179875200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,11 +1643,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Execution time</a:t>
+                  <a:t>Speed</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t> up</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -646,20 +1683,13 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -683,9 +1713,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655770192"/>
+        <c:crossAx val="1703095152"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -803,7 +1833,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> + Largest Cluster Execution Times</a:t>
+              <a:t> Speed Up</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -842,25 +1872,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$7</c:f>
+              <c:f>Charts!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>64x64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -869,98 +1899,80 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$22</c:f>
+              <c:f>Charts!$M$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$G$22</c:f>
+              <c:f>Charts!$M$7:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.029833</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1343</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.372702</c:v>
+                  <c:v>0.225564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.129693</c:v>
+                  <c:v>0.135624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.820088</c:v>
+                  <c:v>0.224888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.729909</c:v>
+                  <c:v>0.199291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.30939600000001</c:v>
+                  <c:v>0.172084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.204265</c:v>
+                  <c:v>0.156959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>821.55439</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3139.762408</c:v>
+                  <c:v>0.155656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -968,17 +1980,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$7</c:f>
+              <c:f>Charts!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T: Total</c:v>
+                  <c:v>128x128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -987,98 +1999,350 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$22</c:f>
+              <c:f>Charts!$M$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$8:$H$22</c:f>
+              <c:f>Charts!$M$8:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.122247</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.166057</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.354772</c:v>
+                  <c:v>0.303163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.121445</c:v>
+                  <c:v>0.320955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.070466</c:v>
+                  <c:v>0.345344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.490011</c:v>
+                  <c:v>0.300715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111.918951</c:v>
+                  <c:v>0.301558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>441.530889</c:v>
+                  <c:v>0.228842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>763.9578310000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2939.220713</c:v>
+                  <c:v>0.165044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$9:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.366261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.370554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.372107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.306718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$10:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.388071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.376194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.413439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.347579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$11:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1089,30 +2353,295 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1598816496"/>
-        <c:axId val="1598480672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1598816496"/>
+        <c:smooth val="0"/>
+        <c:axId val="1709134000"/>
+        <c:axId val="1192399168"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$M$6:$U$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$M$12:$U$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$M$6:$U$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$M$13:$U$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$M$6:$U$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$M$14:$U$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1709134000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1134,8 +2663,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Lattice size</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1169,6 +2703,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1177,8 +2712,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1205,12 +2740,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1598480672"/>
+        <c:crossAx val="1192399168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1598480672"/>
+        <c:axId val="1192399168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,11 +2789,1519 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Execution time</a:t>
+                  <a:t>Speed</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t> up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1709134000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percolation + Largest Cluster Size Speed Up</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AY$6:$BG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AY$7:$BG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.623702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.472632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.612444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.576569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.513899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.485277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AY$6:$BG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AY$8:$BG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.760834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.778885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.792357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.760658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.754886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.702046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.603737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AY$6:$BG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AY$9:$BG$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.998392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.970255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.923669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.901942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.908289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.914683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.837916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AY$6:$BG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AY$10:$BG$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.979963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.914111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.927575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.896166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$AY$6:$BG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$AY$11:$BG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1706033152"/>
+        <c:axId val="1706429776"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$12:$BG$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$13:$BG$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$14:$BG$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$15:$BG$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$16:$BG$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$17:$BG$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$6:$BG$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$AY$18:$BG$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1706033152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706429776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1706429776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> up</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1296,14 +4342,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1327,9 +4367,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1598816496"/>
+        <c:crossAx val="1706033152"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1408,7 +4448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1423,36 +4463,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Largest Clutster</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Execution Times</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1486,25 +4496,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$7</c:f>
+              <c:f>Charts!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster</c:v>
+                  <c:v>64x64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1513,98 +4523,80 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$22</c:f>
+              <c:f>Charts!$M$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$22</c:f>
+              <c:f>Charts!$M$7:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.011718</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.042581</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.144921</c:v>
+                  <c:v>0.225564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.590351</c:v>
+                  <c:v>0.135624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.074372</c:v>
+                  <c:v>0.224888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.190905000000001</c:v>
+                  <c:v>0.199291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.470656</c:v>
+                  <c:v>0.172084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.438297</c:v>
+                  <c:v>0.156959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>593.1306949999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2421.303074</c:v>
+                  <c:v>0.155656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1612,17 +4604,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>Charts!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T: Cluster</c:v>
+                  <c:v>128x128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1631,98 +4623,492 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$22</c:f>
+              <c:f>Charts!$M$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$22</c:f>
+              <c:f>Charts!$M$8:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.011718</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.042581</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.144921</c:v>
+                  <c:v>0.303163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.590351</c:v>
+                  <c:v>0.320955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.074372</c:v>
+                  <c:v>0.345344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.190905000000001</c:v>
+                  <c:v>0.300715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.470656</c:v>
+                  <c:v>0.301558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.438297</c:v>
+                  <c:v>0.228842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>593.1306949999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2421.303074</c:v>
+                  <c:v>0.165044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$9:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.366261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.370554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.372107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.306718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$10:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.388071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.376194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.413439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.347579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$11:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$12:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$M$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1733,87 +5119,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1594184192"/>
-        <c:axId val="1654544976"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1594184192"/>
+        <c:smooth val="0"/>
+        <c:axId val="1193034944"/>
+        <c:axId val="1195556800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193034944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Lattice size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1822,8 +5139,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1850,12 +5167,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1654544976"/>
+        <c:crossAx val="1195556800"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1654544976"/>
+        <c:axId val="1195556800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,81 +5195,13 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1973,9 +5225,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594184192"/>
+        <c:crossAx val="1193034944"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2174,8 +5426,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2202,8 +5494,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2283,6 +5575,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2293,6 +5590,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2304,7 +5606,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2324,6 +5626,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2336,10 +5641,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2379,23 +5684,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2500,8 +5804,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2633,20 +5937,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2660,17 +5963,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2691,7 +5983,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2718,8 +6010,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2799,6 +6091,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2809,6 +6106,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2820,7 +6122,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2840,6 +6142,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2852,10 +6157,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2895,23 +6200,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3016,8 +6320,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3149,20 +6453,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3176,17 +6479,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3207,7 +6499,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3234,8 +6526,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3315,6 +6607,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3325,6 +6622,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3336,7 +6638,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3356,6 +6658,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3368,10 +6673,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3411,23 +6716,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3532,8 +6836,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3665,12 +6969,315 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3681,28 +7288,229 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3726,20 +7534,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3756,20 +7564,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3786,20 +7594,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3809,6 +7617,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4080,347 +7918,1372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:BZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="W6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="AB6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>1</v>
       </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>5</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AM6">
+        <v>7</v>
+      </c>
+      <c r="AN6">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>4</v>
+      </c>
+      <c r="BD6">
+        <v>5</v>
+      </c>
+      <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>7</v>
+      </c>
+      <c r="BG6">
+        <v>8</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="D7">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="E7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="G7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H7">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="I7">
+        <v>2.61E-4</v>
+      </c>
+      <c r="J7">
+        <v>2.8699999999999998E-4</v>
+      </c>
+      <c r="K7">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.22556399999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.13562399999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.224888</v>
+      </c>
+      <c r="R7">
+        <v>0.199291</v>
+      </c>
+      <c r="S7">
+        <v>0.17208399999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.15695899999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.15565599999999999</v>
+      </c>
+      <c r="W7">
+        <v>2.43E-4</v>
+      </c>
+      <c r="X7">
+        <v>2.63E-4</v>
+      </c>
+      <c r="Y7">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="Z7">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="AA7">
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="AB7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AC7">
+        <v>3.0800000000000001E-4</v>
+      </c>
+      <c r="AD7">
+        <v>3.19E-4</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0.92582699999999996</v>
+      </c>
+      <c r="AI7">
+        <v>0.874282</v>
+      </c>
+      <c r="AJ7">
+        <v>0.89881800000000001</v>
+      </c>
+      <c r="AK7">
+        <v>0.88702599999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.81214500000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.79128699999999996</v>
+      </c>
+      <c r="AN7">
+        <v>0.762293</v>
+      </c>
+      <c r="AP7">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="AQ7">
+        <v>4.6200000000000001E-4</v>
+      </c>
+      <c r="AR7">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="AS7">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="AT7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AU7">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="AV7">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="AW7">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0.62370199999999998</v>
+      </c>
+      <c r="BB7">
+        <v>0.472632</v>
+      </c>
+      <c r="BC7">
+        <v>0.61244399999999999</v>
+      </c>
+      <c r="BD7">
+        <v>0.576569</v>
+      </c>
+      <c r="BE7">
+        <v>0.51389899999999999</v>
+      </c>
+      <c r="BF7">
+        <v>0.48527700000000001</v>
+      </c>
+      <c r="BG7">
+        <v>0.47403000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>10</v>
+      </c>
+      <c r="BK7">
+        <v>10</v>
+      </c>
+      <c r="BL7">
+        <v>10</v>
+      </c>
+      <c r="BM7">
+        <v>10</v>
+      </c>
+      <c r="BN7">
+        <v>10</v>
+      </c>
+      <c r="BO7">
+        <v>10</v>
+      </c>
+      <c r="BP7">
+        <v>10</v>
+      </c>
+      <c r="BQ7">
+        <v>10</v>
+      </c>
+      <c r="BS7">
+        <v>3991</v>
+      </c>
+      <c r="BT7">
+        <v>3991</v>
+      </c>
+      <c r="BU7">
+        <v>3991</v>
+      </c>
+      <c r="BV7">
+        <v>3991</v>
+      </c>
+      <c r="BW7">
+        <v>3991</v>
+      </c>
+      <c r="BX7">
+        <v>3991</v>
+      </c>
+      <c r="BY7">
+        <v>3991</v>
+      </c>
+      <c r="BZ7">
+        <v>3991</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="D8">
+        <v>9.7E-5</v>
+      </c>
+      <c r="E8">
+        <v>3.19E-4</v>
+      </c>
+      <c r="F8">
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="G8">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="H8">
+        <v>3.2200000000000002E-4</v>
+      </c>
+      <c r="I8">
+        <v>3.21E-4</v>
+      </c>
+      <c r="J8">
+        <v>4.2299999999999998E-4</v>
+      </c>
+      <c r="K8">
+        <v>5.8699999999999996E-4</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
+      <c r="O8">
+        <v>0.30316300000000002</v>
+      </c>
+      <c r="P8">
+        <v>0.32095499999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.34534399999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.30071500000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.30155799999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.22884199999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.165044</v>
+      </c>
+      <c r="W8">
+        <v>8.8800000000000001E-4</v>
+      </c>
+      <c r="X8">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="Y8">
+        <v>9.6299999999999999E-4</v>
+      </c>
+      <c r="Z8">
+        <v>9.6299999999999999E-4</v>
+      </c>
+      <c r="AA8">
+        <v>9.7300000000000002E-4</v>
+      </c>
+      <c r="AB8">
+        <v>9.8400000000000007E-4</v>
+      </c>
+      <c r="AC8">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="AD8">
+        <v>1.0449999999999999E-3</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>0.91068499999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.92231799999999997</v>
+      </c>
+      <c r="AJ8">
+        <v>0.92251000000000005</v>
+      </c>
+      <c r="AK8">
+        <v>0.91283800000000004</v>
+      </c>
+      <c r="AL8">
+        <v>0.90281599999999995</v>
+      </c>
+      <c r="AM8">
+        <v>0.90631700000000004</v>
+      </c>
+      <c r="AN8">
+        <v>0.84999499999999995</v>
+      </c>
+      <c r="AP8">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="AQ8">
+        <v>1.2949999999999999E-3</v>
+      </c>
+      <c r="AR8">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="AS8">
+        <v>1.243E-3</v>
+      </c>
+      <c r="AT8">
+        <v>1.2949999999999999E-3</v>
+      </c>
+      <c r="AU8">
+        <v>1.305E-3</v>
+      </c>
+      <c r="AV8">
+        <v>1.403E-3</v>
+      </c>
+      <c r="AW8">
+        <v>1.6310000000000001E-3</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0.76083400000000001</v>
+      </c>
+      <c r="BB8">
+        <v>0.77888500000000005</v>
+      </c>
+      <c r="BC8">
+        <v>0.79235699999999998</v>
+      </c>
+      <c r="BD8">
+        <v>0.76065799999999995</v>
+      </c>
+      <c r="BE8">
+        <v>0.75488599999999995</v>
+      </c>
+      <c r="BF8">
+        <v>0.70204599999999995</v>
+      </c>
+      <c r="BG8">
+        <v>0.60373699999999997</v>
+      </c>
+      <c r="BJ8">
+        <v>10</v>
+      </c>
+      <c r="BK8">
+        <v>10</v>
+      </c>
+      <c r="BL8">
+        <v>10</v>
+      </c>
+      <c r="BM8">
+        <v>10</v>
+      </c>
+      <c r="BN8">
+        <v>10</v>
+      </c>
+      <c r="BO8">
+        <v>10</v>
+      </c>
+      <c r="BP8">
+        <v>10</v>
+      </c>
+      <c r="BQ8">
+        <v>20</v>
+      </c>
+      <c r="BS8">
+        <v>15924</v>
+      </c>
+      <c r="BT8">
+        <v>15924</v>
+      </c>
+      <c r="BU8">
+        <v>15924</v>
+      </c>
+      <c r="BV8">
+        <v>15924</v>
+      </c>
+      <c r="BW8">
+        <v>15924</v>
+      </c>
+      <c r="BX8">
+        <v>15924</v>
+      </c>
+      <c r="BY8">
+        <v>15924</v>
+      </c>
+      <c r="BZ8">
+        <v>16324</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>3.7189E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.8114999999999999E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.110529</v>
-      </c>
-      <c r="E8">
-        <v>1.1717999999999999E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.1717999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>2.9832999999999998E-2</v>
-      </c>
-      <c r="H8">
-        <v>0.12224699999999999</v>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>2.1610000000000002E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.8599999999999999E-4</v>
+      </c>
+      <c r="E9">
+        <v>4.1199999999999999E-4</v>
+      </c>
+      <c r="F9">
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="G9">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="H9">
+        <v>5.0900000000000001E-4</v>
+      </c>
+      <c r="I9">
+        <v>5.0299999999999997E-4</v>
+      </c>
+      <c r="J9">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="K9">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0.45311000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.48886000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>0.39562999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.366261</v>
+      </c>
+      <c r="S9">
+        <v>0.37055399999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.37210700000000002</v>
+      </c>
+      <c r="U9">
+        <v>0.30671799999999999</v>
+      </c>
+      <c r="W9">
+        <v>3.725E-3</v>
+      </c>
+      <c r="X9">
+        <v>3.506E-3</v>
+      </c>
+      <c r="Y9">
+        <v>3.6489999999999999E-3</v>
+      </c>
+      <c r="Z9">
+        <v>3.7629999999999999E-3</v>
+      </c>
+      <c r="AA9">
+        <v>3.8270000000000001E-3</v>
+      </c>
+      <c r="AB9">
+        <v>3.803E-3</v>
+      </c>
+      <c r="AC9">
+        <v>3.7750000000000001E-3</v>
+      </c>
+      <c r="AD9">
+        <v>4.0590000000000001E-3</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1.0624130000000001</v>
+      </c>
+      <c r="AI9">
+        <v>1.0205789999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>0.98982099999999995</v>
+      </c>
+      <c r="AK9">
+        <v>0.973217</v>
+      </c>
+      <c r="AL9">
+        <v>0.97946100000000003</v>
+      </c>
+      <c r="AM9">
+        <v>0.98672700000000002</v>
+      </c>
+      <c r="AN9">
+        <v>0.91748099999999999</v>
+      </c>
+      <c r="AP9">
+        <v>3.9110000000000004E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>3.9170000000000003E-3</v>
+      </c>
+      <c r="AR9">
+        <v>4.0309999999999999E-3</v>
+      </c>
+      <c r="AS9">
+        <v>4.2339999999999999E-3</v>
+      </c>
+      <c r="AT9">
+        <v>4.3359999999999996E-3</v>
+      </c>
+      <c r="AU9">
+        <v>4.3059999999999999E-3</v>
+      </c>
+      <c r="AV9">
+        <v>4.2760000000000003E-3</v>
+      </c>
+      <c r="AW9">
+        <v>4.6680000000000003E-3</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0.99839199999999995</v>
+      </c>
+      <c r="BB9">
+        <v>0.97025499999999998</v>
+      </c>
+      <c r="BC9">
+        <v>0.92366899999999996</v>
+      </c>
+      <c r="BD9">
+        <v>0.90194200000000002</v>
+      </c>
+      <c r="BE9">
+        <v>0.90828900000000001</v>
+      </c>
+      <c r="BF9">
+        <v>0.91468300000000002</v>
+      </c>
+      <c r="BG9">
+        <v>0.83791599999999999</v>
+      </c>
+      <c r="BJ9">
+        <v>10</v>
+      </c>
+      <c r="BK9">
+        <v>10</v>
+      </c>
+      <c r="BL9">
+        <v>10</v>
+      </c>
+      <c r="BM9">
+        <v>10</v>
+      </c>
+      <c r="BN9">
+        <v>10</v>
+      </c>
+      <c r="BO9">
+        <v>10</v>
+      </c>
+      <c r="BP9">
+        <v>10</v>
+      </c>
+      <c r="BQ9">
+        <v>30</v>
+      </c>
+      <c r="BS9">
+        <v>63838</v>
+      </c>
+      <c r="BT9">
+        <v>63838</v>
+      </c>
+      <c r="BU9">
+        <v>63838</v>
+      </c>
+      <c r="BV9">
+        <v>63838</v>
+      </c>
+      <c r="BW9">
+        <v>63838</v>
+      </c>
+      <c r="BX9">
+        <v>63838</v>
+      </c>
+      <c r="BY9">
+        <v>63838</v>
+      </c>
+      <c r="BZ9">
+        <v>65471</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>4.1373E-2</v>
-      </c>
-      <c r="C9">
-        <v>9.1718999999999995E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.123476</v>
-      </c>
-      <c r="E9">
-        <v>4.2581000000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>4.2581000000000001E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.1343</v>
-      </c>
-      <c r="H9">
-        <v>0.16605700000000001</v>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>8.4130000000000003E-3</v>
+      </c>
+      <c r="D10">
+        <v>5.4299999999999997E-4</v>
+      </c>
+      <c r="E10">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.1509999999999999E-3</v>
+      </c>
+      <c r="G10">
+        <v>1.4E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.444E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.3140000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.5629999999999999E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.593E-3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0.57804</v>
+      </c>
+      <c r="P10">
+        <v>0.47186</v>
+      </c>
+      <c r="Q10">
+        <v>0.388071</v>
+      </c>
+      <c r="R10">
+        <v>0.37619399999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.413439</v>
+      </c>
+      <c r="T10">
+        <v>0.34757900000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.34111799999999998</v>
+      </c>
+      <c r="W10">
+        <v>1.4779E-2</v>
+      </c>
+      <c r="X10">
+        <v>1.4696000000000001E-2</v>
+      </c>
+      <c r="Y10">
+        <v>1.4721E-2</v>
+      </c>
+      <c r="Z10">
+        <v>1.6185999999999999E-2</v>
+      </c>
+      <c r="AA10">
+        <v>1.5318E-2</v>
+      </c>
+      <c r="AB10">
+        <v>1.5205E-2</v>
+      </c>
+      <c r="AC10">
+        <v>1.5180000000000001E-2</v>
+      </c>
+      <c r="AD10">
+        <v>1.5505E-2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1.005668</v>
+      </c>
+      <c r="AI10">
+        <v>1.003981</v>
+      </c>
+      <c r="AJ10">
+        <v>0.91312599999999999</v>
+      </c>
+      <c r="AK10">
+        <v>0.96482599999999996</v>
+      </c>
+      <c r="AL10">
+        <v>0.97200900000000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.97360400000000002</v>
+      </c>
+      <c r="AN10">
+        <v>0.95318099999999994</v>
+      </c>
+      <c r="AP10">
+        <v>1.5323E-2</v>
+      </c>
+      <c r="AQ10">
+        <v>1.5636000000000001E-2</v>
+      </c>
+      <c r="AR10">
+        <v>1.5872000000000001E-2</v>
+      </c>
+      <c r="AS10">
+        <v>1.7585E-2</v>
+      </c>
+      <c r="AT10">
+        <v>1.6761999999999999E-2</v>
+      </c>
+      <c r="AU10">
+        <v>1.6518999999999999E-2</v>
+      </c>
+      <c r="AV10">
+        <v>1.6743000000000001E-2</v>
+      </c>
+      <c r="AW10">
+        <v>1.7097999999999999E-2</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>0.97996300000000003</v>
+      </c>
+      <c r="BB10">
+        <v>0.96538000000000002</v>
+      </c>
+      <c r="BC10">
+        <v>0.87132600000000004</v>
+      </c>
+      <c r="BD10">
+        <v>0.91411100000000001</v>
+      </c>
+      <c r="BE10">
+        <v>0.92757500000000004</v>
+      </c>
+      <c r="BF10">
+        <v>0.91515999999999997</v>
+      </c>
+      <c r="BG10">
+        <v>0.89616600000000002</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>10</v>
+      </c>
+      <c r="BL10">
+        <v>10</v>
+      </c>
+      <c r="BM10">
+        <v>10</v>
+      </c>
+      <c r="BN10">
+        <v>10</v>
+      </c>
+      <c r="BO10">
+        <v>10</v>
+      </c>
+      <c r="BP10">
+        <v>10</v>
+      </c>
+      <c r="BQ10">
+        <v>40</v>
+      </c>
+      <c r="BS10">
+        <v>255733</v>
+      </c>
+      <c r="BT10">
+        <v>255733</v>
+      </c>
+      <c r="BU10">
+        <v>255733</v>
+      </c>
+      <c r="BV10">
+        <v>255733</v>
+      </c>
+      <c r="BW10">
+        <v>255733</v>
+      </c>
+      <c r="BX10">
+        <v>255733</v>
+      </c>
+      <c r="BY10">
+        <v>255733</v>
+      </c>
+      <c r="BZ10">
+        <v>262280</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>8.8540999999999995E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.22778100000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.20985100000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.14492099999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.14492099999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.37270199999999998</v>
-      </c>
-      <c r="H10">
-        <v>0.35477199999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>128</v>
-      </c>
-      <c r="B11">
-        <v>0.23580899999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.53934199999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.53109399999999996</v>
-      </c>
-      <c r="E11">
-        <v>0.59035099999999996</v>
-      </c>
-      <c r="F11">
-        <v>0.59035099999999996</v>
-      </c>
-      <c r="G11">
-        <v>1.1296930000000001</v>
-      </c>
-      <c r="H11">
-        <v>1.121445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>256</v>
-      </c>
-      <c r="B12">
-        <v>0.74601099999999998</v>
-      </c>
-      <c r="C12">
-        <v>1.745716</v>
-      </c>
-      <c r="D12">
-        <v>1.996095</v>
-      </c>
-      <c r="E12">
-        <v>2.0743719999999999</v>
-      </c>
-      <c r="F12">
-        <v>2.0743719999999999</v>
-      </c>
-      <c r="G12">
-        <v>3.8200880000000002</v>
-      </c>
-      <c r="H12">
-        <v>4.0704659999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>512</v>
-      </c>
-      <c r="B13">
-        <v>2.3754979999999999</v>
-      </c>
-      <c r="C13">
-        <v>7.5390050000000004</v>
-      </c>
-      <c r="D13">
-        <v>11.299106999999999</v>
-      </c>
-      <c r="E13">
-        <v>8.1909050000000008</v>
-      </c>
-      <c r="F13">
-        <v>8.1909050000000008</v>
-      </c>
-      <c r="G13">
-        <v>15.729908999999999</v>
-      </c>
-      <c r="H13">
-        <v>19.490010999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1024</v>
-      </c>
-      <c r="B14">
-        <v>9.2888009999999994</v>
-      </c>
-      <c r="C14">
-        <v>30.838740000000001</v>
-      </c>
-      <c r="D14">
-        <v>77.448294000000004</v>
-      </c>
-      <c r="E14">
-        <v>34.470655999999998</v>
-      </c>
-      <c r="F14">
-        <v>34.470655999999998</v>
-      </c>
-      <c r="G14">
-        <v>65.309396000000007</v>
-      </c>
-      <c r="H14">
-        <v>111.91895100000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2048</v>
-      </c>
-      <c r="B15">
-        <v>35.069363000000003</v>
-      </c>
-      <c r="C15">
-        <v>104.765969</v>
-      </c>
-      <c r="D15">
-        <v>301.09259200000002</v>
-      </c>
-      <c r="E15">
-        <v>140.43829700000001</v>
-      </c>
-      <c r="F15">
-        <v>140.43829700000001</v>
-      </c>
-      <c r="G15">
-        <v>245.20426499999999</v>
-      </c>
-      <c r="H15">
-        <v>441.530889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4096</v>
-      </c>
-      <c r="B16">
-        <v>137.974862</v>
-      </c>
-      <c r="C16">
-        <v>228.42369500000001</v>
-      </c>
-      <c r="D16">
-        <v>170.827136</v>
-      </c>
-      <c r="E16">
-        <v>593.13069499999995</v>
-      </c>
-      <c r="F16">
-        <v>593.13069499999995</v>
-      </c>
-      <c r="G16">
-        <v>821.55439000000001</v>
-      </c>
-      <c r="H16">
-        <v>763.95783100000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8192</v>
-      </c>
-      <c r="B17">
-        <v>526.32718999999997</v>
-      </c>
-      <c r="C17">
-        <v>718.45933400000001</v>
-      </c>
-      <c r="D17">
-        <v>517.91763900000001</v>
-      </c>
-      <c r="E17">
-        <v>2421.3030739999999</v>
-      </c>
-      <c r="F17">
-        <v>2421.3030739999999</v>
-      </c>
-      <c r="G17">
-        <v>3139.7624080000001</v>
-      </c>
-      <c r="H17">
-        <v>2939.2207130000002</v>
-      </c>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>